--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Btc-Erbb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Btc-Erbb2.xlsx
@@ -540,40 +540,40 @@
         <v>0.687972</v>
       </c>
       <c r="I2">
-        <v>0.1345276800989288</v>
+        <v>0.7783932765807232</v>
       </c>
       <c r="J2">
-        <v>0.1345276800989288</v>
+        <v>0.7783932765807231</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.179771666666667</v>
+        <v>1.572065666666667</v>
       </c>
       <c r="N2">
-        <v>6.539315</v>
+        <v>4.716197</v>
       </c>
       <c r="O2">
-        <v>0.2349306639444428</v>
+        <v>0.1759712293834306</v>
       </c>
       <c r="P2">
-        <v>0.2349306639444428</v>
+        <v>0.1759712293834305</v>
       </c>
       <c r="Q2">
-        <v>0.4998739576866667</v>
+        <v>0.3605123869426667</v>
       </c>
       <c r="R2">
-        <v>4.49886561918</v>
+        <v>3.244611482484</v>
       </c>
       <c r="S2">
-        <v>0.03160467720454694</v>
+        <v>0.1369748218237066</v>
       </c>
       <c r="T2">
-        <v>0.03160467720454694</v>
+        <v>0.1369748218237065</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>0.687972</v>
       </c>
       <c r="I3">
-        <v>0.1345276800989288</v>
+        <v>0.7783932765807232</v>
       </c>
       <c r="J3">
-        <v>0.1345276800989288</v>
+        <v>0.7783932765807231</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>12.713403</v>
       </c>
       <c r="O3">
-        <v>0.4567402255103586</v>
+        <v>0.4743638053196239</v>
       </c>
       <c r="P3">
-        <v>0.4567402255103585</v>
+        <v>0.4743638053196239</v>
       </c>
       <c r="Q3">
         <v>0.971829476524</v>
       </c>
       <c r="R3">
-        <v>8.746465288715999</v>
+        <v>8.746465288716001</v>
       </c>
       <c r="S3">
-        <v>0.0614442029457701</v>
+        <v>0.3692415967140423</v>
       </c>
       <c r="T3">
-        <v>0.06144420294577011</v>
+        <v>0.3692415967140423</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>0.687972</v>
       </c>
       <c r="I4">
-        <v>0.1345276800989288</v>
+        <v>0.7783932765807232</v>
       </c>
       <c r="J4">
-        <v>0.1345276800989288</v>
+        <v>0.7783932765807231</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.860789</v>
+        <v>3.123785</v>
       </c>
       <c r="N4">
-        <v>8.582367000000001</v>
+        <v>9.371354999999999</v>
       </c>
       <c r="O4">
-        <v>0.3083291105451987</v>
+        <v>0.3496649652969456</v>
       </c>
       <c r="P4">
-        <v>0.3083291105451986</v>
+        <v>0.3496649652969455</v>
       </c>
       <c r="Q4">
-        <v>0.6560475766360001</v>
+        <v>0.71635887134</v>
       </c>
       <c r="R4">
-        <v>5.904428189724001</v>
+        <v>6.44722984206</v>
       </c>
       <c r="S4">
-        <v>0.04147879994861173</v>
+        <v>0.2721768580429744</v>
       </c>
       <c r="T4">
-        <v>0.04147879994861173</v>
+        <v>0.2721768580429743</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.065288</v>
+      </c>
+      <c r="H5">
+        <v>0.195864</v>
+      </c>
+      <c r="I5">
+        <v>0.2216067234192769</v>
+      </c>
+      <c r="J5">
+        <v>0.2216067234192769</v>
+      </c>
+      <c r="K5">
         <v>3</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.475336333333334</v>
-      </c>
-      <c r="H5">
-        <v>4.426009000000001</v>
-      </c>
-      <c r="I5">
-        <v>0.8654723199010712</v>
-      </c>
-      <c r="J5">
-        <v>0.8654723199010712</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>2.179771666666667</v>
+        <v>1.572065666666667</v>
       </c>
       <c r="N5">
-        <v>6.539315</v>
+        <v>4.716197</v>
       </c>
       <c r="O5">
-        <v>0.2349306639444428</v>
+        <v>0.1759712293834306</v>
       </c>
       <c r="P5">
-        <v>0.2349306639444428</v>
+        <v>0.1759712293834305</v>
       </c>
       <c r="Q5">
-        <v>3.21589633820389</v>
+        <v>0.1026370232453333</v>
       </c>
       <c r="R5">
-        <v>28.943067043835</v>
+        <v>0.9237332092080001</v>
       </c>
       <c r="S5">
-        <v>0.2033259867398959</v>
+        <v>0.03899640755972403</v>
       </c>
       <c r="T5">
-        <v>0.2033259867398958</v>
+        <v>0.03899640755972402</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.475336333333334</v>
+        <v>0.065288</v>
       </c>
       <c r="H6">
-        <v>4.426009000000001</v>
+        <v>0.195864</v>
       </c>
       <c r="I6">
-        <v>0.8654723199010712</v>
+        <v>0.2216067234192769</v>
       </c>
       <c r="J6">
-        <v>0.8654723199010712</v>
+        <v>0.2216067234192769</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>12.713403</v>
       </c>
       <c r="O6">
-        <v>0.4567402255103586</v>
+        <v>0.4743638053196239</v>
       </c>
       <c r="P6">
-        <v>0.4567402255103585</v>
+        <v>0.4743638053196239</v>
       </c>
       <c r="Q6">
-        <v>6.252181788736334</v>
+        <v>0.276677551688</v>
       </c>
       <c r="R6">
-        <v>56.269636098627</v>
+        <v>2.490097965192001</v>
       </c>
       <c r="S6">
-        <v>0.3952960225645885</v>
+        <v>0.1051222086055816</v>
       </c>
       <c r="T6">
-        <v>0.3952960225645884</v>
+        <v>0.1051222086055816</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>1.475336333333334</v>
+        <v>0.065288</v>
       </c>
       <c r="H7">
-        <v>4.426009000000001</v>
+        <v>0.195864</v>
       </c>
       <c r="I7">
-        <v>0.8654723199010712</v>
+        <v>0.2216067234192769</v>
       </c>
       <c r="J7">
-        <v>0.8654723199010712</v>
+        <v>0.2216067234192769</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.860789</v>
+        <v>3.123785</v>
       </c>
       <c r="N7">
-        <v>8.582367000000001</v>
+        <v>9.371354999999999</v>
       </c>
       <c r="O7">
-        <v>0.3083291105451987</v>
+        <v>0.3496649652969456</v>
       </c>
       <c r="P7">
-        <v>0.3083291105451986</v>
+        <v>0.3496649652969455</v>
       </c>
       <c r="Q7">
-        <v>4.220625953700335</v>
+        <v>0.20394567508</v>
       </c>
       <c r="R7">
-        <v>37.98563358330301</v>
+        <v>1.83551107572</v>
       </c>
       <c r="S7">
-        <v>0.2668503105965869</v>
+        <v>0.07748810725397128</v>
       </c>
       <c r="T7">
-        <v>0.2668503105965869</v>
+        <v>0.07748810725397125</v>
       </c>
     </row>
   </sheetData>
